--- a/ForThesis/Corrected Results/Found Lenses.xlsx
+++ b/ForThesis/Corrected Results/Found Lenses.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annarienbester/git/gravitationallenses/ForThesis/Corrected Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923AFD42-0930-AF4C-BBD2-D38F6F79A8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475D0E4A-3703-F04E-ACD0-6CFB6AAEE89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43100" yWindow="-2180" windowWidth="33620" windowHeight="20180" activeTab="1" xr2:uid="{4CFF3A6A-89EA-DF4F-8945-006140BC60F8}"/>
+    <workbookView xWindow="36720" yWindow="-3140" windowWidth="42640" windowHeight="20360" activeTab="4" xr2:uid="{4CFF3A6A-89EA-DF4F-8945-006140BC60F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Predicted" sheetId="1" r:id="rId1"/>
-    <sheet name="Runs Predicted" sheetId="3" r:id="rId2"/>
-    <sheet name="Non Predicted" sheetId="2" r:id="rId3"/>
+    <sheet name="Predicted_Grouped_No Duplicates" sheetId="7" r:id="rId1"/>
+    <sheet name="Predicted_Grouped" sheetId="6" r:id="rId2"/>
+    <sheet name="Predicted" sheetId="1" r:id="rId3"/>
+    <sheet name="Non Predicted" sheetId="2" r:id="rId4"/>
+    <sheet name="Selected Grouped No Duplicates" sheetId="10" r:id="rId5"/>
+    <sheet name="Selected Grouped" sheetId="9" r:id="rId6"/>
+    <sheet name="Selected Lenses Predicted" sheetId="4" r:id="rId7"/>
+    <sheet name="Selected Lenses Unpredicted" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="445">
   <si>
     <t>Run 0</t>
   </si>
@@ -1269,13 +1274,115 @@
   </si>
   <si>
     <t>Found Five Times</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 315_DES0031+0043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 348_DES0239-0124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">271_DES0307-2124 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 341_DES0232-0333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 228_DES0346-2458 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 256_DES0109-0458 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 241_DES0039-2915 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 234_DES0125-1458 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 312_DES0005-0041 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 236_DES0417-4123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100_DES0156-0041 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 327_DES0213-0541 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 505_DES2225+0043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 232_DES0144-0833 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 529_DES2328+0001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 258_DES0332-1332 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 290_DES0604-4040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 283_DES0543-2458 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 250_DES0412-1958 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 523_DES2257+0043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 149_DES0224-0541 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 294_DES0148-0250 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231_DES2012-5748 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 287_DES0430-5957 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 347_DES0239-0124 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">348_DES0239-0124 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 271_DES0307-2124 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85_DES2331+0126</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 348_DES0239-0124 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1_DES0005-0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231_DES2012-5748 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19_DES0011-4623 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">347_DES0239-0124 </t>
+  </si>
+  <si>
+    <t>Found Three Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1283,16 +1390,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1300,24 +1427,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="133">
+  <dxfs count="11">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1343,11 +1487,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1363,11 +1507,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1383,11 +1527,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1403,1231 +1547,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2950,1473 +1874,1633 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBBB38F-9FD8-0A42-9E17-4CEB231B52E4}">
-  <dimension ref="B1:N42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A926A4EB-8DE8-E542-B4FB-0FB445E369EE}">
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>409</v>
       </c>
       <c r="C1" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="D1" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="E1" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="F1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J1" t="s">
-        <v>405</v>
-      </c>
-      <c r="K1" t="s">
-        <v>406</v>
-      </c>
-      <c r="L1" t="s">
-        <v>407</v>
-      </c>
-      <c r="M1" t="s">
         <v>408</v>
       </c>
-      <c r="N1" t="s">
+      <c r="G1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>394</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" t="s">
+        <v>382</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>368</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3">
+        <f>COUNTA(C3:C14)</f>
+        <v>12</v>
+      </c>
+      <c r="D18" s="3">
+        <f>COUNTA(D3:D17)</f>
+        <v>7</v>
+      </c>
+      <c r="E18" s="3">
+        <f>COUNTA(E3:E17)</f>
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <f>COUNTA(F3:F17)</f>
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
+        <f>COUNTA(G3:G17)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2">
+        <f>SUM(C18:G18)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="6" t="b">
+        <f>IF(G19=A46,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F3" t="s">
-        <v>403</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>395</v>
-      </c>
-      <c r="D13" t="s">
-        <v>287</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F17" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>299</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>301</v>
-      </c>
-      <c r="D22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>300</v>
-      </c>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>262</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E26" t="s">
-        <v>152</v>
-      </c>
-      <c r="F26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" t="s">
-        <v>361</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
-        <v>395</v>
-      </c>
-      <c r="F31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" t="s">
-        <v>395</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>309</v>
-      </c>
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
-        <v>27</v>
-      </c>
-    </row>
+    <row r="46" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f>COUNTA(A3:A44)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5664414F-29F8-7244-884F-3EDF08221F79}">
-  <dimension ref="B1:N42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0F817E-5782-DA45-90A4-3804A94EEE37}">
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>409</v>
       </c>
       <c r="C1" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="D1" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="E1" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="F1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J1" t="s">
-        <v>405</v>
-      </c>
-      <c r="K1" t="s">
-        <v>406</v>
-      </c>
-      <c r="L1" t="s">
-        <v>407</v>
-      </c>
-      <c r="M1" t="s">
         <v>408</v>
       </c>
-      <c r="N1" t="s">
+      <c r="G1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>398</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>401</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
         <v>403</v>
       </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3">
+        <f>COUNTA(C3:C23)</f>
+        <v>21</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ref="D25:G25" si="0">COUNTA(D3:D23)</f>
+        <v>9</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <f>SUM(C25:G25)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>133</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>134</v>
       </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>326</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>262</v>
       </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>184</v>
       </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>361</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>287</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>238</v>
       </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" t="s">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>82</v>
       </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>301</v>
-      </c>
-      <c r="D22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>300</v>
-      </c>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>262</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E26" t="s">
-        <v>152</v>
-      </c>
-      <c r="F26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>309</v>
-      </c>
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
-        <v>27</v>
-      </c>
-    </row>
+    <row r="65" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f>COUNTA(A3:A63)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <conditionalFormatting sqref="B1:F1048576">
-    <cfRule type="containsText" dxfId="45" priority="73" operator="containsText" text="18_">
-      <formula>NOT(ISERROR(SEARCH("18_",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="72" operator="containsText" text="440_">
-      <formula>NOT(ISERROR(SEARCH("440_",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="69" operator="containsText" text="19_">
-      <formula>NOT(ISERROR(SEARCH("19_",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="66" operator="containsText" text="20_">
-      <formula>NOT(ISERROR(SEARCH("20_",B1)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
-      <formula>"461_"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="64" operator="containsText" text="461_">
-      <formula>NOT(ISERROR(SEARCH("461_",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="63" operator="containsText" text="162_">
-      <formula>NOT(ISERROR(SEARCH("162_",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="62" operator="containsText" text="28_">
-      <formula>NOT(ISERROR(SEARCH("28_",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="61" operator="containsText" text="549_">
-      <formula>NOT(ISERROR(SEARCH("549_",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="60" operator="containsText" text="270_">
-      <formula>NOT(ISERROR(SEARCH("270_",B1)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
-      <formula>"35_"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="35_">
-      <formula>NOT(ISERROR(SEARCH("35_",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="33" operator="containsText" text="17_">
-      <formula>NOT(ISERROR(SEARCH("17_",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="32" operator="containsText" text="563_">
-      <formula>NOT(ISERROR(SEARCH("563_",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="448_">
-      <formula>NOT(ISERROR(SEARCH("448_",B1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H6">
-    <cfRule type="containsText" dxfId="131" priority="70" operator="containsText" text="440_">
-      <formula>NOT(ISERROR(SEARCH("440_",H5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="71" operator="containsText" text="18_">
-      <formula>NOT(ISERROR(SEARCH("18_",H5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="containsText" dxfId="130" priority="67" operator="containsText" text="440_">
-      <formula>NOT(ISERROR(SEARCH("440_",N5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="68" operator="containsText" text="18_">
-      <formula>NOT(ISERROR(SEARCH("18_",N5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="84" priority="34" operator="containsText" text="35_">
-      <formula>NOT(ISERROR(SEARCH("35_",H13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="35" operator="equal">
-      <formula>"35_"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="36" operator="containsText" text="270_">
-      <formula>NOT(ISERROR(SEARCH("270_",H13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="37" operator="containsText" text="549_">
-      <formula>NOT(ISERROR(SEARCH("549_",H13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="38" operator="containsText" text="28_">
-      <formula>NOT(ISERROR(SEARCH("28_",H13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="39" operator="containsText" text="162_">
-      <formula>NOT(ISERROR(SEARCH("162_",H13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="40" operator="containsText" text="461_">
-      <formula>NOT(ISERROR(SEARCH("461_",H13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="41" operator="equal">
-      <formula>"461_"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="42" operator="containsText" text="20_">
-      <formula>NOT(ISERROR(SEARCH("20_",H13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="43" operator="containsText" text="19_">
-      <formula>NOT(ISERROR(SEARCH("19_",H13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="44" operator="containsText" text="440_">
-      <formula>NOT(ISERROR(SEARCH("440_",H13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="45" operator="containsText" text="18_">
-      <formula>NOT(ISERROR(SEARCH("18_",H13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="448_">
-      <formula>NOT(ISERROR(SEARCH("448_",H15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="563_">
-      <formula>NOT(ISERROR(SEARCH("563_",H15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="17_">
-      <formula>NOT(ISERROR(SEARCH("17_",H15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="35_">
-      <formula>NOT(ISERROR(SEARCH("35_",H15)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>"35_"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="270_">
-      <formula>NOT(ISERROR(SEARCH("270_",H15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="549_">
-      <formula>NOT(ISERROR(SEARCH("549_",H15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="28_">
-      <formula>NOT(ISERROR(SEARCH("28_",H15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="162_">
-      <formula>NOT(ISERROR(SEARCH("162_",H15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="461_">
-      <formula>NOT(ISERROR(SEARCH("461_",H15)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>"461_"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="20_">
-      <formula>NOT(ISERROR(SEARCH("20_",H15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="19_">
-      <formula>NOT(ISERROR(SEARCH("19_",H15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="440_">
-      <formula>NOT(ISERROR(SEARCH("440_",H15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="18_">
-      <formula>NOT(ISERROR(SEARCH("18_",H15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="448_">
-      <formula>NOT(ISERROR(SEARCH("448_",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="563_">
-      <formula>NOT(ISERROR(SEARCH("563_",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="17_">
-      <formula>NOT(ISERROR(SEARCH("17_",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="35_">
-      <formula>NOT(ISERROR(SEARCH("35_",J4)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"35_"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="270_">
-      <formula>NOT(ISERROR(SEARCH("270_",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="549_">
-      <formula>NOT(ISERROR(SEARCH("549_",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="28_">
-      <formula>NOT(ISERROR(SEARCH("28_",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="162_">
-      <formula>NOT(ISERROR(SEARCH("162_",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="461_">
-      <formula>NOT(ISERROR(SEARCH("461_",J4)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"461_"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="20_">
-      <formula>NOT(ISERROR(SEARCH("20_",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="19_">
-      <formula>NOT(ISERROR(SEARCH("19_",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="440_">
-      <formula>NOT(ISERROR(SEARCH("440_",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="18_">
-      <formula>NOT(ISERROR(SEARCH("18_",J4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBBB38F-9FD8-0A42-9E17-4CEB231B52E4}">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>299</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>361</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>395</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>395</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>309</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFF6FA7-D0B6-354B-A367-F1153FE75F9F}">
   <dimension ref="B1:F361"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -10464,4 +9548,1873 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A65EB15-7A5E-E44C-8CA0-CF28EE4AD46E}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <f>COUNTA(C2:C5)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f>COUNTA(D2:D5)</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <f>COUNTA(E2:E5)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <f>COUNTA(F2:F5)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <f>COUNTA(G2:G5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <f>SUM(C6:G6)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="6" t="b">
+        <f>IF(A10=G7,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f>COUNTA(A2:A8)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65A1505-E334-C644-BA3E-BEDA35670A63}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <f>COUNTA(C2:C8)</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:G9" si="0">COUNTA(D2:D8)</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>412</v>
+      </c>
+      <c r="G10">
+        <f>SUM(C9:G9)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f>COUNTA(A2:A17)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="57" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B32C3D7-882D-F243-A9A9-CD5F67CDDE6C}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>412</v>
+      </c>
+      <c r="D10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1D3495-1F60-DA4A-A17A-D49DB32081A0}">
+  <dimension ref="A1:E78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>419</v>
+      </c>
+      <c r="E11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" t="s">
+        <v>416</v>
+      </c>
+      <c r="E12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>431</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" t="s">
+        <v>420</v>
+      </c>
+      <c r="E15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>424</v>
+      </c>
+      <c r="E16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" t="s">
+        <v>432</v>
+      </c>
+      <c r="D17" t="s">
+        <v>418</v>
+      </c>
+      <c r="E17" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>421</v>
+      </c>
+      <c r="B18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" t="s">
+        <v>437</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" t="s">
+        <v>423</v>
+      </c>
+      <c r="E19" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" t="s">
+        <v>369</v>
+      </c>
+      <c r="D20" t="s">
+        <v>359</v>
+      </c>
+      <c r="E20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>424</v>
+      </c>
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C22" t="s">
+        <v>429</v>
+      </c>
+      <c r="D22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" t="s">
+        <v>330</v>
+      </c>
+      <c r="C23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>422</v>
+      </c>
+      <c r="B24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" t="s">
+        <v>330</v>
+      </c>
+      <c r="D25" t="s">
+        <v>370</v>
+      </c>
+      <c r="E25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>423</v>
+      </c>
+      <c r="D29" t="s">
+        <v>434</v>
+      </c>
+      <c r="E29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B30" t="s">
+        <v>370</v>
+      </c>
+      <c r="C30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" t="s">
+        <v>437</v>
+      </c>
+      <c r="E30" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>424</v>
+      </c>
+      <c r="B31" t="s">
+        <v>432</v>
+      </c>
+      <c r="C31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D31" t="s">
+        <v>380</v>
+      </c>
+      <c r="E31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" t="s">
+        <v>415</v>
+      </c>
+      <c r="E33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" t="s">
+        <v>378</v>
+      </c>
+      <c r="C36" t="s">
+        <v>418</v>
+      </c>
+      <c r="D36" t="s">
+        <v>421</v>
+      </c>
+      <c r="E36" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>380</v>
+      </c>
+      <c r="B37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D37" t="s">
+        <v>379</v>
+      </c>
+      <c r="E37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" t="s">
+        <v>423</v>
+      </c>
+      <c r="C38" t="s">
+        <v>378</v>
+      </c>
+      <c r="D38" t="s">
+        <v>435</v>
+      </c>
+      <c r="E38" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" t="s">
+        <v>430</v>
+      </c>
+      <c r="C39" t="s">
+        <v>304</v>
+      </c>
+      <c r="D39" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>426</v>
+      </c>
+      <c r="B40" t="s">
+        <v>285</v>
+      </c>
+      <c r="C40" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" t="s">
+        <v>369</v>
+      </c>
+      <c r="E40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>357</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" t="s">
+        <v>279</v>
+      </c>
+      <c r="D43" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s">
+        <v>416</v>
+      </c>
+      <c r="D44" t="s">
+        <v>244</v>
+      </c>
+      <c r="E44" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>369</v>
+      </c>
+      <c r="B45" t="s">
+        <v>369</v>
+      </c>
+      <c r="C45" t="s">
+        <v>435</v>
+      </c>
+      <c r="D45" t="s">
+        <v>427</v>
+      </c>
+      <c r="E45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>427</v>
+      </c>
+      <c r="B46" t="s">
+        <v>427</v>
+      </c>
+      <c r="C46" t="s">
+        <v>414</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>428</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" t="s">
+        <v>437</v>
+      </c>
+      <c r="D47" t="s">
+        <v>425</v>
+      </c>
+      <c r="E47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" t="s">
+        <v>425</v>
+      </c>
+      <c r="C49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" t="s">
+        <v>426</v>
+      </c>
+      <c r="E49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>378</v>
+      </c>
+      <c r="B50" t="s">
+        <v>419</v>
+      </c>
+      <c r="C50" t="s">
+        <v>428</v>
+      </c>
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" t="s">
+        <v>357</v>
+      </c>
+      <c r="E51" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>429</v>
+      </c>
+      <c r="B53" t="s">
+        <v>288</v>
+      </c>
+      <c r="C53" t="s">
+        <v>370</v>
+      </c>
+      <c r="D53" t="s">
+        <v>422</v>
+      </c>
+      <c r="E53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>330</v>
+      </c>
+      <c r="B54" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" t="s">
+        <v>424</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>258</v>
+      </c>
+      <c r="B56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" t="s">
+        <v>359</v>
+      </c>
+      <c r="D56" t="s">
+        <v>431</v>
+      </c>
+      <c r="E56" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" t="s">
+        <v>422</v>
+      </c>
+      <c r="C57" t="s">
+        <v>293</v>
+      </c>
+      <c r="D57" t="s">
+        <v>330</v>
+      </c>
+      <c r="E57" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>379</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" t="s">
+        <v>258</v>
+      </c>
+      <c r="D59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>430</v>
+      </c>
+      <c r="B60" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" t="s">
+        <v>285</v>
+      </c>
+      <c r="D60" t="s">
+        <v>430</v>
+      </c>
+      <c r="E60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>431</v>
+      </c>
+      <c r="B61" t="s">
+        <v>416</v>
+      </c>
+      <c r="C61" t="s">
+        <v>422</v>
+      </c>
+      <c r="D61" t="s">
+        <v>285</v>
+      </c>
+      <c r="E61" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>432</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" t="s">
+        <v>417</v>
+      </c>
+      <c r="E62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" t="s">
+        <v>439</v>
+      </c>
+      <c r="D63" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" t="s">
+        <v>316</v>
+      </c>
+      <c r="C64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" t="s">
+        <v>316</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" t="s">
+        <v>428</v>
+      </c>
+      <c r="E65" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>274</v>
+      </c>
+      <c r="B66" t="s">
+        <v>431</v>
+      </c>
+      <c r="C66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" t="s">
+        <v>282</v>
+      </c>
+      <c r="E66" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>293</v>
+      </c>
+      <c r="B67" t="s">
+        <v>420</v>
+      </c>
+      <c r="C67" t="s">
+        <v>430</v>
+      </c>
+      <c r="D67" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" t="s">
+        <v>262</v>
+      </c>
+      <c r="D68" t="s">
+        <v>378</v>
+      </c>
+      <c r="E68" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>433</v>
+      </c>
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" t="s">
+        <v>419</v>
+      </c>
+      <c r="D69" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>434</v>
+      </c>
+      <c r="B70" t="s">
+        <v>426</v>
+      </c>
+      <c r="C70" t="s">
+        <v>421</v>
+      </c>
+      <c r="D70" t="s">
+        <v>304</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>359</v>
+      </c>
+      <c r="B71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" t="s">
+        <v>380</v>
+      </c>
+      <c r="D71" t="s">
+        <v>429</v>
+      </c>
+      <c r="E71" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>435</v>
+      </c>
+      <c r="B72" t="s">
+        <v>435</v>
+      </c>
+      <c r="C72" t="s">
+        <v>420</v>
+      </c>
+      <c r="D72" t="s">
+        <v>414</v>
+      </c>
+      <c r="E72" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" t="s">
+        <v>434</v>
+      </c>
+      <c r="C73" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" t="s">
+        <v>258</v>
+      </c>
+      <c r="E73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" t="s">
+        <v>429</v>
+      </c>
+      <c r="C74" t="s">
+        <v>417</v>
+      </c>
+      <c r="D74" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>282</v>
+      </c>
+      <c r="B75" t="s">
+        <v>414</v>
+      </c>
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>417</v>
+      </c>
+      <c r="C76" t="s">
+        <v>434</v>
+      </c>
+      <c r="E76" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>438</v>
+      </c>
+      <c r="C78" t="s">
+        <v>440</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>